--- a/Excels/Timeline chart.xlsx
+++ b/Excels/Timeline chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pendrive 1.0\University\Semester 10\Software Engineering\Lab\FINAL\GitArchieve\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38451384-5200-4938-8A39-AD70602A2F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C70D4-5298-432C-A80E-37E6935BFD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81E9C7B8-543B-4B5B-AC14-FA01D8A5FAF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81E9C7B8-543B-4B5B-AC14-FA01D8A5FAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Task Name</t>
   </si>
@@ -44,201 +44,9 @@
     <t>User Type</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>W5</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>W7</t>
-  </si>
-  <si>
-    <t>W8</t>
-  </si>
-  <si>
-    <t>W9</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W13</t>
-  </si>
-  <si>
-    <t>W14</t>
-  </si>
-  <si>
-    <t>W15</t>
-  </si>
-  <si>
-    <t>W16</t>
-  </si>
-  <si>
-    <t>Splash Screen</t>
-  </si>
-  <si>
-    <t>Swipe Animation with Information carousel</t>
-  </si>
-  <si>
-    <t>Login or signup</t>
-  </si>
-  <si>
-    <t>Upload profile picture</t>
-  </si>
-  <si>
-    <t>User must fill up basic information</t>
-  </si>
-  <si>
-    <t>User need to allow permission of location</t>
-  </si>
-  <si>
-    <t>Search bar with filtering option</t>
-  </si>
-  <si>
-    <t>Most popular hospital lists on carousel</t>
-  </si>
-  <si>
-    <t>Favorite items on carousel effect</t>
-  </si>
-  <si>
-    <t>List of all available services</t>
-  </si>
-  <si>
-    <t>Home Screen icon</t>
-  </si>
-  <si>
-    <t>Medicine Reminder icon</t>
-  </si>
-  <si>
-    <t>Blog Page Icon</t>
-  </si>
-  <si>
-    <t>AI Doctor</t>
-  </si>
-  <si>
-    <t>User profile page</t>
-  </si>
-  <si>
-    <t>Order History menu</t>
-  </si>
-  <si>
-    <t>Track Appointment</t>
-  </si>
-  <si>
-    <t>Active Orders (Booked Cabin, oxygen, ambulance)</t>
-  </si>
-  <si>
-    <t>Navigation history stack</t>
-  </si>
-  <si>
-    <t>Payment integration (mobile banking, card, cash)</t>
-  </si>
-  <si>
-    <t>Comment and rating to doctor and hospital</t>
-  </si>
-  <si>
-    <t>Read hospital and doctor information</t>
-  </si>
-  <si>
-    <t>Can read history of everything</t>
-  </si>
-  <si>
-    <t>CRUD accounts, credentials, reports</t>
-  </si>
-  <si>
-    <t>Create, read, update, delete moderators</t>
-  </si>
-  <si>
-    <t>Can change username, password</t>
-  </si>
-  <si>
-    <t>Basic Information</t>
-  </si>
-  <si>
-    <t>Can see most recent comments with view all</t>
-  </si>
-  <si>
-    <t>Can see list of serial appointed by patient</t>
-  </si>
-  <si>
-    <t>Welcome Page</t>
-  </si>
-  <si>
-    <t>Account Options</t>
-  </si>
-  <si>
-    <t>Reviews</t>
-  </si>
-  <si>
-    <t>Blog page</t>
-  </si>
-  <si>
-    <t>CRUD doctor lists</t>
-  </si>
-  <si>
-    <t>Can see requested list of doctor for approve</t>
-  </si>
-  <si>
-    <t>Cabin section management</t>
-  </si>
-  <si>
-    <t>All track list of equipments</t>
-  </si>
-  <si>
-    <t>Track list of ambulance</t>
-  </si>
-  <si>
-    <t>Section for handling users queries</t>
-  </si>
-  <si>
-    <t>History of patient</t>
-  </si>
-  <si>
     <t>Serial No.</t>
   </si>
   <si>
-    <t>W17</t>
-  </si>
-  <si>
-    <t>W18</t>
-  </si>
-  <si>
-    <t>W19</t>
-  </si>
-  <si>
-    <t>W20</t>
-  </si>
-  <si>
-    <t>W21</t>
-  </si>
-  <si>
-    <t>W22</t>
-  </si>
-  <si>
-    <t>W23</t>
-  </si>
-  <si>
-    <t>W24</t>
-  </si>
-  <si>
     <t>W25</t>
   </si>
   <si>
@@ -255,13 +63,226 @@
   </si>
   <si>
     <t>Tauhidul Islam</t>
+  </si>
+  <si>
+    <t>Identify stakeholders (patients, doctors, hospitals, admin)</t>
+  </si>
+  <si>
+    <t>Gather functional requirements (appointments, bed booking, AI chat)</t>
+  </si>
+  <si>
+    <t>Gather non-functional requirements (security, scalability, usability)</t>
+  </si>
+  <si>
+    <t>Define use cases and user roles</t>
+  </si>
+  <si>
+    <t>Prepare PRD</t>
+  </si>
+  <si>
+    <t>Review and validate requirements with stakeholders</t>
+  </si>
+  <si>
+    <t>Create initial product backlog in Trello</t>
+  </si>
+  <si>
+    <t>Define system architecture (client-server, APIs)</t>
+  </si>
+  <si>
+    <t>Create database schema (ER diagram)</t>
+  </si>
+  <si>
+    <t>Design UI/UX wireframes for patient/doctor/hospital apps</t>
+  </si>
+  <si>
+    <t>Define API endpoints and integration plan</t>
+  </si>
+  <si>
+    <t>Plan AI Doctor module architecture</t>
+  </si>
+  <si>
+    <t>Design admin panel structure with reporting tools</t>
+  </si>
+  <si>
+    <t>Review and finalize system design document</t>
+  </si>
+  <si>
+    <t>Develop user authentication (signup, login, JWT security)</t>
+  </si>
+  <si>
+    <t>Implement patient profile management</t>
+  </si>
+  <si>
+    <t>Implement doctor search and appointment booking</t>
+  </si>
+  <si>
+    <t>Develop hospital bed booking feature</t>
+  </si>
+  <si>
+    <t>Implement test ordering system</t>
+  </si>
+  <si>
+    <t>Develop patient–doctor chat interface</t>
+  </si>
+  <si>
+    <t>Integrate payment gateway (if applicable)</t>
+  </si>
+  <si>
+    <t>Review and test patient module features</t>
+  </si>
+  <si>
+    <t>Develop doctor profile management</t>
+  </si>
+  <si>
+    <t>Implement appointment scheduling and management</t>
+  </si>
+  <si>
+    <t>Create blog posting and review feature</t>
+  </si>
+  <si>
+    <t>Integrate chat with patients</t>
+  </si>
+  <si>
+    <t>Add hospital collaboration functionality</t>
+  </si>
+  <si>
+    <t>Review and test doctor module features</t>
+  </si>
+  <si>
+    <t>Implement hospital registration and profile management</t>
+  </si>
+  <si>
+    <t>CRUD for hospital equipment and test services</t>
+  </si>
+  <si>
+    <t>Manage patient requests (accept/reject system)</t>
+  </si>
+  <si>
+    <t>Develop hospital–doctor linking</t>
+  </si>
+  <si>
+    <t>Review and test hospital module features</t>
+  </si>
+  <si>
+    <t>Implement admin login and authentication</t>
+  </si>
+  <si>
+    <t>Manage users (patients, doctors, hospitals)</t>
+  </si>
+  <si>
+    <t>Add reporting &amp; graphs dashboard</t>
+  </si>
+  <si>
+    <t>Implement audit logs and monitoring</t>
+  </si>
+  <si>
+    <t>Develop symptom input form (NLP interface)</t>
+  </si>
+  <si>
+    <t>Train/integrate AI model for basic diagnosis suggestions</t>
+  </si>
+  <si>
+    <t>Test AI responses for accuracy &amp; safety</t>
+  </si>
+  <si>
+    <t>Unit testing for all modules</t>
+  </si>
+  <si>
+    <t>Integration testing (patient–doctor–hospital flow)</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing (UAT) with stakeholders</t>
+  </si>
+  <si>
+    <t>Bug fixing and retesting</t>
+  </si>
+  <si>
+    <t>Deploy system to cloud/hosting server (CI/CD setup)</t>
+  </si>
+  <si>
+    <t>Publish app (mobile/web) and provide user documentation</t>
+  </si>
+  <si>
+    <t>Plan maintenance, updates, and future scalability</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Week 18</t>
+  </si>
+  <si>
+    <t>Week 19</t>
+  </si>
+  <si>
+    <t>Week 20</t>
+  </si>
+  <si>
+    <t>Week 21</t>
+  </si>
+  <si>
+    <t>Week 22</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +316,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDD6FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -374,6 +413,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,19 +757,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0AA576-702A-4A7E-987B-41C325BA84F4}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -732,93 +782,93 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
@@ -847,15 +897,15 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
@@ -884,15 +934,15 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -921,15 +971,15 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -958,15 +1008,15 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -995,15 +1045,15 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1032,15 +1082,15 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1069,15 +1119,15 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1106,15 +1156,15 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1143,15 +1193,15 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1180,15 +1230,15 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1217,15 +1267,15 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1254,15 +1304,15 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1291,15 +1341,15 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1328,15 +1378,15 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1365,15 +1415,15 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1402,15 +1452,15 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1439,15 +1489,15 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1476,15 +1526,15 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1513,15 +1563,15 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1550,15 +1600,15 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1587,15 +1637,15 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1624,15 +1674,15 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1661,15 +1711,15 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1698,15 +1748,15 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
+      <c r="B26" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1735,15 +1785,15 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1772,15 +1822,15 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
+      <c r="B28" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1809,15 +1859,15 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
+      <c r="B29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1846,15 +1896,15 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>46</v>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1883,15 +1933,15 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1920,15 +1970,15 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
+      <c r="B32" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1957,15 +2007,15 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1994,15 +2044,15 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
+      <c r="B34" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2031,15 +2081,15 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
+      <c r="B35" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2068,15 +2118,15 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+      <c r="B36" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2105,15 +2155,15 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>53</v>
+      <c r="B37" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2142,15 +2192,15 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
+      <c r="B38" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2179,15 +2229,15 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>55</v>
+      <c r="B39" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2216,15 +2266,15 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>56</v>
+      <c r="B40" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2253,15 +2303,15 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
+      <c r="B41" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2290,15 +2340,15 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>45</v>
+      <c r="B42" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2327,15 +2377,15 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
+      <c r="B43" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2364,15 +2414,15 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
+      <c r="B44" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2401,15 +2451,15 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
+      <c r="B45" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2438,15 +2488,15 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>49</v>
+      <c r="B46" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2475,15 +2525,15 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>50</v>
+      <c r="B47" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2512,15 +2562,15 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>57</v>
+      <c r="B48" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
